--- a/src/test/resources/Output.xlsx
+++ b/src/test/resources/Output.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20505" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27508" uniqueCount="575">
   <si>
     <t>Car Name</t>
   </si>
@@ -1721,6 +1721,57 @@
   </si>
   <si>
     <t>Hyundai EON Hyundai EON D Lite</t>
+  </si>
+  <si>
+    <t>Kia Seltos 2019-2023 Kia Seltos HTK Plus iMT</t>
+  </si>
+  <si>
+    <t>Rs. 12.75 Lakh</t>
+  </si>
+  <si>
+    <t>Kia Seltos 2019-2023 Kia Seltos HTK Plus AT D</t>
+  </si>
+  <si>
+    <t>Rs. 13.75 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.19 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.73 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2018 Maruti Swift AMT ZDI</t>
+  </si>
+  <si>
+    <t>Rs. 5.84 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing Hyundai Santro Xing GLS AT</t>
+  </si>
+  <si>
+    <t>Rs. 1.75 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.70 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.44 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Creta 2020-2024 Hyundai Creta SX Opt IVT</t>
+  </si>
+  <si>
+    <t>Rs. 20.75 Lakh</t>
+  </si>
+  <si>
+    <t>MG Hector 2019-2021 MG Hector Sharp DCT Dualtone</t>
+  </si>
+  <si>
+    <t>Rs. 16.75 Lakh</t>
+  </si>
+  <si>
+    <t>West Saidapet</t>
   </si>
 </sst>
 </file>
@@ -2234,54 +2285,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>12</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>548</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>149</v>
+        <v>553</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>59</v>
@@ -2289,10 +2340,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>550</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>551</v>
+        <v>349</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>21</v>
@@ -2300,10 +2351,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>59</v>
@@ -2311,10 +2362,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>96</v>
+        <v>554</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>349</v>
+        <v>555</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>21</v>
@@ -2322,10 +2373,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>555</v>
+        <v>349</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>21</v>
@@ -2333,13 +2384,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>556</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>270</v>
+        <v>392</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2347,29 +2398,29 @@
         <v>96</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>349</v>
+        <v>573</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>26</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>26</v>
@@ -2394,7 +2445,7 @@
         <v>42</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2471,7 +2522,7 @@
         <v>540</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -2493,7 +2544,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2515,7 +2566,7 @@
         <v>42</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -2526,48 +2577,48 @@
         <v>64</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>43</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s" s="0">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>175</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s" s="0">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s" s="0">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>40</v>
@@ -2575,21 +2626,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>40</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s" s="0">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>175</v>
@@ -2597,13 +2648,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s" s="0">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>175</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -2611,29 +2662,29 @@
         <v>58</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s" s="0">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>40</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s" s="0">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>175</v>
@@ -2641,10 +2692,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s" s="0">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>175</v>
@@ -2652,10 +2703,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>43</v>
@@ -2663,10 +2714,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s" s="0">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>40</v>
@@ -2674,10 +2725,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s" s="0">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>175</v>
@@ -2685,39 +2736,39 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s" s="0">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s" s="0">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>240</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>163</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s" s="0">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>90</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s" s="0">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>244</v>
@@ -2725,290 +2776,290 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s" s="0">
-        <v>245</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>244</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s" s="0">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s" s="0">
-        <v>438</v>
+        <v>246</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s" s="0">
-        <v>34</v>
+        <v>438</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>88</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s" s="0">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>439</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>145</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>232</v>
+        <v>440</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>79</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>30</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>440</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>441</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>99</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>268</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>52</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>268</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>79</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>442</v>
+        <v>225</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>30</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>443</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>225</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>299</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>325</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>445</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>446</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>163</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>345</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>268</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>268</v>
+        <v>443</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>236</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>79</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>41</v>
+        <v>444</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>443</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>283</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>444</v>
+        <v>236</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>66</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>247</v>
+        <v>447</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>233</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>236</v>
+        <v>448</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>443</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>268</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>79</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>449</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>145</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>145</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>42</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>443</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84">
@@ -3095,7 +3146,7 @@
         <v>149</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3166,10 +3217,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>261</v>
@@ -3177,10 +3228,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>264</v>
@@ -3648,7 +3699,7 @@
         <v>201</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>261</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3659,7 +3710,7 @@
         <v>202</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>264</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3670,7 +3721,7 @@
         <v>160</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -3960,7 +4011,7 @@
         <v>181</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3971,18 +4022,18 @@
         <v>183</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>96</v>
+        <v>560</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>349</v>
+        <v>561</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -3998,13 +4049,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -4012,21 +4063,21 @@
         <v>96</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>557</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4062,7 +4113,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>542</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>42</v>
@@ -4073,13 +4124,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4087,18 +4138,18 @@
         <v>412</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>130</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>493</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>21</v>
@@ -4106,57 +4157,57 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>366</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>194</v>
+        <v>481</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>412</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>494</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>487</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>390</v>
+        <v>494</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4167,7 +4218,7 @@
         <v>318</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4189,7 +4240,7 @@
         <v>481</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -4200,7 +4251,7 @@
         <v>478</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -4211,7 +4262,7 @@
         <v>541</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -4222,15 +4273,15 @@
         <v>495</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>102</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>139</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>90</v>
+        <v>539</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>85</v>
@@ -4238,10 +4289,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>377</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>539</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>86</v>
@@ -4249,10 +4300,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>36</v>
@@ -4260,24 +4311,24 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>373</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>498</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -4285,18 +4336,18 @@
         <v>144</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>40</v>
@@ -4304,21 +4355,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>146</v>
+        <v>360</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>358</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>145</v>
+        <v>365</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>36</v>
@@ -4326,13 +4377,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>360</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -4340,95 +4391,95 @@
         <v>135</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>366</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>369</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>370</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>144</v>
+        <v>370</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>240</v>
+        <v>411</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>144</v>
+        <v>412</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>372</v>
+        <v>270</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>131</v>
+        <v>340</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>132</v>
+        <v>413</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>40</v>
@@ -4436,10 +4487,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>144</v>
+        <v>414</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>160</v>
+        <v>539</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>40</v>
@@ -4447,120 +4498,120 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>361</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>362</v>
+        <v>535</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>364</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>132</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>163</v>
+        <v>371</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>379</v>
+        <v>568</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>411</v>
+        <v>498</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>412</v>
+        <v>487</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>413</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>272</v>
+        <v>375</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>40</v>
@@ -4568,21 +4619,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>414</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>415</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>137</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>535</v>
+        <v>362</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>26</v>
@@ -4725,7 +4776,7 @@
         <v>414</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>36</v>
@@ -4750,7 +4801,7 @@
         <v>374</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65">
@@ -4761,26 +4812,26 @@
         <v>88</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>426</v>
+        <v>504</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>429</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>36</v>
@@ -4788,32 +4839,32 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>135</v>
+        <v>417</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>323</v>
+        <v>418</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>36</v>
@@ -4821,10 +4872,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>431</v>
+        <v>135</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>421</v>
+        <v>323</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>36</v>
@@ -4832,10 +4883,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>36</v>
@@ -4843,65 +4894,65 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>99</v>
+        <v>436</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>27</v>
+        <v>477</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>479</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>59</v>
@@ -4909,10 +4960,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>377</v>
+        <v>479</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>378</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>59</v>
@@ -4920,10 +4971,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>480</v>
+        <v>377</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>481</v>
+        <v>378</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>20</v>
@@ -4931,10 +4982,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>70</v>
+        <v>481</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>85</v>
@@ -4942,10 +4993,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>29</v>
@@ -4959,7 +5010,7 @@
         <v>486</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84">
@@ -4970,7 +5021,7 @@
         <v>488</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85">
@@ -4981,7 +5032,7 @@
         <v>82</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86">
@@ -4992,7 +5043,7 @@
         <v>490</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87">
@@ -5003,7 +5054,7 @@
         <v>455</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
@@ -5047,7 +5098,7 @@
         <v>501</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92">
@@ -5058,7 +5109,7 @@
         <v>502</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>43</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93">
@@ -5091,59 +5142,59 @@
         <v>481</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>175</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>504</v>
+        <v>163</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>40</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>175</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>358</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>226</v>
+        <v>488</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>144</v>
+        <v>361</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>65</v>
@@ -5151,74 +5202,74 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>361</v>
+        <v>144</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>507</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>163</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>147</v>
+        <v>414</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>194</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>318</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>358</v>
+        <v>144</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>283</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>144</v>
+        <v>485</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>42</v>
+        <v>508</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>485</v>
+        <v>144</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>508</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110">
@@ -5226,55 +5277,55 @@
         <v>144</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>226</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>144</v>
+        <v>414</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>324</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>509</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>340</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>140</v>
+        <v>511</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>163</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>490</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>510</v>
+        <v>413</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>233</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117">
@@ -5282,47 +5333,47 @@
         <v>413</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>413</v>
+        <v>512</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>30</v>
+        <v>513</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>512</v>
+        <v>147</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>513</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>147</v>
+        <v>496</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>163</v>
+        <v>509</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>496</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>509</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123">
@@ -5330,47 +5381,47 @@
         <v>147</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>145</v>
+        <v>354</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>147</v>
+        <v>515</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>354</v>
+        <v>516</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>516</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>79</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>517</v>
+        <v>366</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>116</v>
+        <v>481</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>481</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129">
@@ -5388,7 +5439,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC22AA17-F649-4345-870C-9511F913A3BA}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -5414,24 +5465,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>567</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -5439,29 +5490,29 @@
         <v>114</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>21</v>
@@ -5469,35 +5520,35 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -5505,7 +5556,7 @@
         <v>124</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>21</v>
@@ -5513,42 +5564,50 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>261</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>264</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B15" t="s" s="0">
         <v>357</v>
       </c>
     </row>
@@ -5585,43 +5644,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>542</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>543</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>544</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>545</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>546</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>547</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>548</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>36</v>
@@ -5629,98 +5688,98 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>549</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>550</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>551</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>552</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>553</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>349</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>554</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>555</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>556</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>557</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>349</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>328</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>36</v>
@@ -5728,10 +5787,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>84</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>36</v>
@@ -5756,7 +5815,7 @@
         <v>310</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -5778,7 +5837,7 @@
         <v>313</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -5789,7 +5848,7 @@
         <v>88</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -5800,7 +5859,7 @@
         <v>294</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -5811,15 +5870,15 @@
         <v>33</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>227</v>
+        <v>318</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>86</v>
@@ -5827,21 +5886,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>29</v>
@@ -5849,87 +5908,87 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>534</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>300</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>36</v>
@@ -5937,10 +5996,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>36</v>
@@ -5948,10 +6007,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>305</v>
+        <v>563</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>36</v>
@@ -5962,10 +6021,10 @@
         <v>83</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -5973,40 +6032,40 @@
         <v>83</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>533</v>
+        <v>298</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>95</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>36</v>
@@ -6014,24 +6073,24 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>295</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>296</v>
+        <v>534</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>175</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
@@ -6039,29 +6098,29 @@
         <v>83</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>36</v>
@@ -6069,10 +6128,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>36</v>
@@ -6080,10 +6139,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>298</v>
+        <v>562</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>36</v>
@@ -6094,7 +6153,7 @@
         <v>83</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>321</v>
+        <v>533</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>36</v>
@@ -6105,7 +6164,7 @@
         <v>83</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>36</v>
@@ -6116,21 +6175,21 @@
         <v>83</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>83</v>
+        <v>564</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>323</v>
+        <v>565</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
@@ -6141,7 +6200,7 @@
         <v>303</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>65</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53">
@@ -6152,7 +6211,7 @@
         <v>293</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
@@ -6163,7 +6222,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55">
@@ -6174,7 +6233,7 @@
         <v>23</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56">
@@ -6185,7 +6244,7 @@
         <v>94</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
@@ -6196,59 +6255,59 @@
         <v>270</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>331</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>334</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>318</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>26</v>
@@ -6256,10 +6315,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>65</v>
@@ -6267,10 +6326,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>99</v>
+        <v>336</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>40</v>
@@ -6278,18 +6337,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>340</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>99</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67">
@@ -6297,39 +6356,39 @@
         <v>341</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>343</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>453</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>66</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>455</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72">
@@ -6337,31 +6396,31 @@
         <v>454</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>298</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>307</v>
+        <v>456</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>469</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>458</v>
+        <v>307</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>352</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76">
@@ -6374,66 +6433,66 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>342</v>
+        <v>458</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>163</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>459</v>
+        <v>342</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>104</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>461</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>317</v>
+        <v>457</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>443</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>83</v>
+        <v>317</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>42</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>460</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>268</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>317</v>
+        <v>460</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>226</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85">
@@ -6446,50 +6505,50 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>323</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>443</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>317</v>
+        <v>462</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>319</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>463</v>
+        <v>317</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>88</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>233</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>145</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92">
@@ -6534,74 +6593,74 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>89</v>
+        <v>465</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>372</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>33</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>145</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>459</v>
+        <v>342</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>233</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>342</v>
+        <v>471</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>443</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>472</v>
+        <v>342</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>151</v>
+        <v>443</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>443</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
@@ -6675,10 +6734,10 @@
         <v>96</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6686,10 +6745,10 @@
         <v>96</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>392</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -6705,24 +6764,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>109</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6730,21 +6789,21 @@
         <v>96</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6760,76 +6819,76 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>111</v>
+        <v>345</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>96</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>65</v>
@@ -6837,43 +6896,43 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>351</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>352</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>393</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>36</v>
@@ -6881,10 +6940,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>104</v>
+        <v>344</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>26</v>
@@ -6892,10 +6951,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>344</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>40</v>
@@ -6925,10 +6984,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>36</v>
@@ -6936,10 +6995,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>23</v>
+        <v>348</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>29</v>
@@ -7144,58 +7203,58 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>54</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>405</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>268</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>98</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>393</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>123</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>401</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>406</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>96</v>
+        <v>351</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>99</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>351</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>215</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57">
@@ -7203,15 +7262,15 @@
         <v>96</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
@@ -7264,34 +7323,34 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>79</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>349</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>401</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>14</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>96</v>
+        <v>401</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>347</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -7299,7 +7358,7 @@
         <v>96</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>125</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70">
@@ -7307,39 +7366,39 @@
         <v>96</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>398</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>475</v>
+        <v>96</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>99</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>96</v>
+        <v>475</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>398</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>476</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>110</v>
+        <v>401</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>406</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75">
@@ -7378,10 +7437,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>21</v>
@@ -7389,10 +7448,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>21</v>

--- a/src/test/resources/Output.xlsx
+++ b/src/test/resources/Output.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27508" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42318" uniqueCount="644">
   <si>
     <t>Car Name</t>
   </si>
@@ -1772,6 +1772,213 @@
   </si>
   <si>
     <t>West Saidapet</t>
+  </si>
+  <si>
+    <t>Expected Launch Date : 30 Mar 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Mar 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Apr 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Jun 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch : Unrevealed</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire VXI</t>
+  </si>
+  <si>
+    <t>Rs. 5.63 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.13 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.26 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.69 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift ZXI Plus AMT</t>
+  </si>
+  <si>
+    <t>Rs. 7.21 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.06 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 6.18 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift AMT ZXI</t>
+  </si>
+  <si>
+    <t>Rs. 3.24 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.73 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i DTec V</t>
+  </si>
+  <si>
+    <t>Rs. 6.06 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.35 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.34 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 11.96 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.01 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i VTEC VX Option</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2016-2021 Toyota Fortuner 2.8 2WD MT</t>
+  </si>
+  <si>
+    <t>Rs. 25.50 Lakh</t>
+  </si>
+  <si>
+    <t>Kia Seltos 2019-2023 Kia Seltos GTX Plus Diesel AT</t>
+  </si>
+  <si>
+    <t>Rs. 16.50 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Jimny Maruti Jimny Zeta AT</t>
+  </si>
+  <si>
+    <t>Rs. 4.69 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai EON Hyundai EON 1.0 Era Plus</t>
+  </si>
+  <si>
+    <t>Maruti Alto K10 Maruti Alto K10 VXI</t>
+  </si>
+  <si>
+    <t>Hyundai Elite i20 2017-2020 Hyundai Elite i20 2017-2020 Sportz Plus BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 6.72 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Alto 800 2016-2019 Maruti Alto 800 LXI</t>
+  </si>
+  <si>
+    <t>Rs. 13.50 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2004-2011 Toyota Innova 2.0 G1 BSIV</t>
+  </si>
+  <si>
+    <t>Hyundai Venue 2019-2022 Hyundai Venue SX Turbo iMT</t>
+  </si>
+  <si>
+    <t>Rs. 8.90 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Creta 2020-2024 Hyundai Creta S plus Knight Diesel</t>
+  </si>
+  <si>
+    <t>Rs. 16.25 Lakh</t>
+  </si>
+  <si>
+    <t>Skoda Kushaq Skoda Kushaq 1.0 TSI Style AT BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 16.00 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Baleno 2015-2022 Maruti Baleno 1.2 Delta</t>
+  </si>
+  <si>
+    <t>Hyundai i20 2010-2012 Hyundai i20 1.2 Sportz Option</t>
+  </si>
+  <si>
+    <t>Rs. 3.47 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Elite i20 2017-2020 Hyundai Elite i20 2017-2020 1.4 Magna AT</t>
+  </si>
+  <si>
+    <t>Renault Triber Renault Triber RXZ EASY-R AMT</t>
+  </si>
+  <si>
+    <t>Hyundai Elite i20 2014-2017 Hyundai Elite i20 2014-2017 Sportz 1.2</t>
+  </si>
+  <si>
+    <t>Hyundai i20 2009-2011 Hyundai i20 Asta</t>
+  </si>
+  <si>
+    <t>Rs. 6.12 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Nov 2024</t>
+  </si>
+  <si>
+    <t>Maruti Celerio 2017-2021 Maruti Celerio VXi AMT</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City V CVT</t>
+  </si>
+  <si>
+    <t>Rs. 9.45 Lakh</t>
+  </si>
+  <si>
+    <t>Tata Tigor Tata Tigor XZ Plus BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 5.28 Lakh</t>
+  </si>
+  <si>
+    <t>Renault KWID Renault KWID RXL</t>
+  </si>
+  <si>
+    <t>Rs. 4.56 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Creta 2015-2020 Hyundai Creta 1.6 VTVT SX Plus</t>
+  </si>
+  <si>
+    <t>Rs. 11.50 Lakh</t>
+  </si>
+  <si>
+    <t>Volkswagen Polo 2015-2019 Volkswagen Polo 1.2 MPI Comfortline</t>
+  </si>
+  <si>
+    <t>Rs. 5.39 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.94 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Creta 2020-2024 Hyundai Creta EX BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 11.90 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.98 Lakh</t>
+  </si>
+  <si>
+    <t>Kia Seltos 2019-2023 Kia Seltos HTK G</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -2177,62 +2384,62 @@
         <v>209</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>210</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>212</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>212</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>212</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>218</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>220</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2243,7 +2450,7 @@
         <v>222</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>223</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2254,7 +2461,7 @@
         <v>215</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>223</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -2285,175 +2492,175 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>544</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>545</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>547</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>548</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>149</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>552</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>553</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>560</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>561</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>554</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>555</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>557</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>349</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>392</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>572</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>573</v>
+        <v>354</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>574</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>354</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>42</v>
+        <v>582</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>36</v>
@@ -2461,10 +2668,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>36</v>
@@ -2472,43 +2679,43 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>33</v>
+        <v>562</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>267</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>49</v>
+        <v>583</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>59</v>
@@ -2516,10 +2723,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>540</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>62</v>
@@ -2527,10 +2734,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>62</v>
@@ -2538,10 +2745,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s" s="0">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>65</v>
@@ -2779,20 +2986,20 @@
         <v>58</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>30</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s" s="0">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>88</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s" s="0">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s" s="0">
         <v>30</v>
@@ -2808,63 +3015,63 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s" s="0">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>440</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>441</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>246</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>268</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>268</v>
@@ -2872,50 +3079,50 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>442</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>30</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>443</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>225</v>
+        <v>442</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>325</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>445</v>
+        <v>225</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>446</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66">
@@ -2928,10 +3135,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>345</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68">
@@ -2952,18 +3159,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>79</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>443</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
@@ -2984,47 +3191,47 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>233</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>443</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>447</v>
+        <v>228</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>268</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>79</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>145</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>145</v>
@@ -3032,10 +3239,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>42</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -3118,10 +3325,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>66</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>55</v>
@@ -3132,10 +3339,10 @@
         <v>153</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>154</v>
+        <v>610</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3146,114 +3353,114 @@
         <v>149</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>261</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>148</v>
+        <v>611</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>163</v>
+        <v>443</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>264</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>166</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>407</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>40</v>
@@ -3594,21 +3801,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>184</v>
+        <v>642</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>185</v>
+        <v>610</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>186</v>
+        <v>639</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>187</v>
+        <v>640</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>40</v>
@@ -3616,76 +3823,76 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>188</v>
+        <v>603</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>189</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>190</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>193</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>195</v>
+        <v>627</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>410</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>197</v>
+        <v>606</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>199</v>
+        <v>628</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>70</v>
+        <v>629</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>59</v>
@@ -3693,35 +3900,35 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>200</v>
+        <v>623</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>201</v>
+        <v>481</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>203</v>
+        <v>624</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -4011,7 +4218,7 @@
         <v>181</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>59</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4022,62 +4229,62 @@
         <v>183</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>555</v>
+        <v>629</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>349</v>
+        <v>481</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>96</v>
+        <v>572</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>392</v>
+        <v>573</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>59</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>96</v>
+        <v>624</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4113,43 +4320,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>140</v>
+        <v>628</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>42</v>
+        <v>629</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>482</v>
+        <v>592</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>227</v>
+        <v>498</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>412</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>194</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>21</v>
@@ -4157,24 +4364,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>130</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>366</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>481</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4190,65 +4397,65 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>227</v>
+        <v>638</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>494</v>
+        <v>362</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>480</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>496</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>497</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>481</v>
+        <v>340</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>26</v>
@@ -4256,24 +4463,24 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>510</v>
+        <v>412</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>541</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -4303,7 +4510,7 @@
         <v>142</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>143</v>
+        <v>593</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>36</v>
@@ -4311,21 +4518,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>144</v>
+        <v>412</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>28</v>
+        <v>594</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>29</v>
@@ -4336,7 +4543,7 @@
         <v>144</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>40</v>
@@ -4344,46 +4551,46 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>358</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>360</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>135</v>
+        <v>358</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>365</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -4391,29 +4598,29 @@
         <v>135</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>569</v>
+        <v>318</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>26</v>
@@ -4421,10 +4628,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>141</v>
+        <v>369</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>36</v>
@@ -4432,10 +4639,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>140</v>
+        <v>370</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>26</v>
@@ -4443,65 +4650,65 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>370</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>411</v>
+        <v>227</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>412</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>270</v>
+        <v>568</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>135</v>
+        <v>412</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>340</v>
+        <v>194</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>413</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>272</v>
+        <v>375</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>539</v>
+        <v>372</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>535</v>
+        <v>363</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>26</v>
@@ -4509,109 +4716,109 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>359</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>366</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>369</v>
+        <v>569</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>227</v>
+        <v>379</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>144</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>568</v>
+        <v>411</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>498</v>
+        <v>270</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>487</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>130</v>
+        <v>414</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>131</v>
+        <v>539</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>132</v>
+        <v>413</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>40</v>
@@ -4619,21 +4826,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>160</v>
+        <v>416</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>361</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>362</v>
+        <v>535</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>26</v>
@@ -4641,43 +4848,43 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>416</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>372</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>136</v>
+        <v>372</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>363</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>36</v>
@@ -4685,10 +4892,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>36</v>
@@ -4696,10 +4903,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>36</v>
@@ -4707,13 +4914,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>367</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
@@ -4740,10 +4947,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>130</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>177</v>
+        <v>309</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>36</v>
@@ -4762,10 +4969,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>40</v>
@@ -4773,10 +4980,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>36</v>
@@ -4784,32 +4991,32 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>482</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>140</v>
+        <v>482</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>88</v>
+        <v>483</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>36</v>
@@ -4817,10 +5024,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>504</v>
+        <v>323</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>26</v>
@@ -4828,10 +5035,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>133</v>
+        <v>431</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>36</v>
@@ -4839,10 +5046,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>36</v>
@@ -4850,21 +5057,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>418</v>
+        <v>597</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>36</v>
@@ -4872,10 +5079,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>135</v>
+        <v>435</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>323</v>
+        <v>436</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>36</v>
@@ -4883,10 +5090,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>431</v>
+        <v>366</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>36</v>
@@ -4894,57 +5101,57 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>432</v>
+        <v>598</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>433</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>366</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>436</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>477</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78">
@@ -4966,7 +5173,7 @@
         <v>121</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -4977,7 +5184,7 @@
         <v>378</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
@@ -4988,7 +5195,7 @@
         <v>481</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
@@ -4999,7 +5206,7 @@
         <v>70</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83">
@@ -5010,7 +5217,7 @@
         <v>486</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84">
@@ -5021,7 +5228,7 @@
         <v>488</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85">
@@ -5032,7 +5239,7 @@
         <v>82</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86">
@@ -5043,7 +5250,7 @@
         <v>490</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -5076,7 +5283,7 @@
         <v>500</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90">
@@ -5087,7 +5294,7 @@
         <v>97</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>40</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91">
@@ -5098,15 +5305,15 @@
         <v>501</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>43</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>27</v>
+        <v>480</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>175</v>
@@ -5114,21 +5321,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>481</v>
+        <v>162</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>175</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>162</v>
+        <v>481</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>175</v>
@@ -5136,10 +5343,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>480</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>481</v>
+        <v>163</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>40</v>
@@ -5147,43 +5354,43 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>175</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>358</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>226</v>
+        <v>488</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>144</v>
+        <v>361</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>65</v>
@@ -5191,10 +5398,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>361</v>
+        <v>27</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>506</v>
+        <v>151</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>65</v>
@@ -5202,50 +5409,50 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>507</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>151</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>163</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>147</v>
+        <v>358</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>194</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>414</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>318</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>358</v>
+        <v>485</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>283</v>
+        <v>508</v>
       </c>
     </row>
     <row r="107">
@@ -5253,71 +5460,71 @@
         <v>144</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>42</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>485</v>
+        <v>144</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>508</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>144</v>
+        <v>414</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>226</v>
+        <v>509</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>324</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>509</v>
+        <v>340</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>340</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>140</v>
+        <v>511</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>163</v>
+        <v>490</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>490</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>510</v>
+        <v>413</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>233</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116">
@@ -5325,47 +5532,47 @@
         <v>413</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>413</v>
+        <v>512</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>30</v>
+        <v>513</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>512</v>
+        <v>147</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>513</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>147</v>
+        <v>496</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>163</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>496</v>
+        <v>132</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>509</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122">
@@ -5373,15 +5580,15 @@
         <v>147</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>145</v>
+        <v>354</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>147</v>
+        <v>514</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>354</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124">
@@ -5394,26 +5601,26 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>79</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>517</v>
+        <v>366</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>116</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>481</v>
+        <v>507</v>
       </c>
     </row>
     <row r="128">
@@ -5439,7 +5646,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC22AA17-F649-4345-870C-9511F913A3BA}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -5515,7 +5722,7 @@
         <v>118</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -5526,7 +5733,7 @@
         <v>119</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -5537,7 +5744,7 @@
         <v>121</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -5548,7 +5755,7 @@
         <v>123</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -5559,7 +5766,7 @@
         <v>125</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -5570,7 +5777,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -5581,7 +5788,7 @@
         <v>121</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -5592,7 +5799,7 @@
         <v>127</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>55</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14">
@@ -5602,6 +5809,9 @@
       <c r="B14" t="s" s="0">
         <v>129</v>
       </c>
+      <c r="C14" t="s" s="0">
+        <v>65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
@@ -5609,6 +5819,54 @@
       </c>
       <c r="B15" t="s" s="0">
         <v>357</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -5644,32 +5902,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>36</v>
@@ -5680,7 +5938,7 @@
         <v>83</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>36</v>
@@ -5699,112 +5957,112 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>269</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>93</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>87</v>
+        <v>585</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>88</v>
+        <v>586</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>84</v>
+        <v>469</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>328</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>309</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -5812,7 +6070,7 @@
         <v>83</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>310</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>36</v>
@@ -5823,172 +6081,172 @@
         <v>83</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>88</v>
+        <v>588</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>294</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>317</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>95</v>
+        <v>297</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>295</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>279</v>
+        <v>563</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>145</v>
+        <v>322</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>36</v>
@@ -5996,10 +6254,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>36</v>
@@ -6007,10 +6265,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>563</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>36</v>
@@ -6018,21 +6276,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>83</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>36</v>
@@ -6040,13 +6298,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
@@ -6054,18 +6312,18 @@
         <v>83</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>294</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>36</v>
@@ -6076,10 +6334,10 @@
         <v>83</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>534</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -6087,40 +6345,40 @@
         <v>83</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>302</v>
+        <v>588</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>300</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>303</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>36</v>
@@ -6128,35 +6386,35 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>36</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>562</v>
+        <v>293</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
@@ -6164,84 +6422,84 @@
         <v>83</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>323</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>564</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>565</v>
+        <v>270</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>175</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>89</v>
+        <v>329</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>54</v>
+        <v>331</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>23</v>
+        <v>315</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>93</v>
+        <v>334</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>40</v>
@@ -6249,10 +6507,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>43</v>
@@ -6260,21 +6518,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>26</v>
@@ -6282,10 +6540,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>65</v>
@@ -6293,10 +6551,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>95</v>
+        <v>341</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>315</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>40</v>
@@ -6304,10 +6562,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>26</v>
@@ -6315,10 +6573,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>318</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>65</v>
@@ -6326,10 +6584,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>40</v>
@@ -6337,143 +6595,143 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>338</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>317</v>
+        <v>454</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>340</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>341</v>
+        <v>454</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>99</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>341</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>109</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>342</v>
+        <v>589</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>28</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>330</v>
+        <v>457</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>343</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>66</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>454</v>
+        <v>342</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>455</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>298</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>324</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>457</v>
+        <v>317</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>145</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>458</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>342</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>163</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>470</v>
+        <v>317</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>125</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>457</v>
+        <v>342</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>461</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>317</v>
+        <v>462</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>443</v>
@@ -6481,26 +6739,26 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>83</v>
+        <v>463</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>268</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
@@ -6508,135 +6766,135 @@
         <v>317</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>226</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>323</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>443</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>319</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>88</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>233</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>317</v>
+        <v>465</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>240</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>466</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>467</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>459</v>
+        <v>334</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>443</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>468</v>
+        <v>342</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>89</v>
+        <v>459</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>372</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>334</v>
+        <v>471</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>33</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>79</v>
+        <v>443</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>342</v>
+        <v>472</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>123</v>
+        <v>443</v>
       </c>
     </row>
     <row r="103">
@@ -6720,24 +6978,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>349</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>96</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>392</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6745,21 +7003,21 @@
         <v>96</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>275</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>394</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6767,10 +7025,10 @@
         <v>96</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6789,43 +7047,43 @@
         <v>96</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>109</v>
+        <v>349</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>96</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6841,65 +7099,65 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>111</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>96</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>346</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>352</v>
+        <v>590</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>351</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>36</v>
@@ -6907,79 +7165,79 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>103</v>
+        <v>351</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>104</v>
+        <v>352</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>344</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>112</v>
+        <v>591</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>107</v>
+        <v>348</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>252</v>
+        <v>474</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -6987,51 +7245,51 @@
         <v>96</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>348</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>96</v>
+        <v>351</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>474</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>222</v>
+        <v>397</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>96</v>
+        <v>395</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>59</v>
@@ -7039,10 +7297,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>43</v>
@@ -7050,10 +7308,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>43</v>
@@ -7061,10 +7319,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>397</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>43</v>
@@ -7072,10 +7330,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>99</v>
+        <v>399</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>65</v>
@@ -7083,50 +7341,50 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>398</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>111</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>96</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>351</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>399</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41">
@@ -7134,55 +7392,55 @@
         <v>400</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>398</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>401</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>96</v>
+        <v>404</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>402</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>345</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>393</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>123</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48">
@@ -7195,82 +7453,82 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>125</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>405</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>268</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>393</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>400</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>123</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>401</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>406</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>96</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>99</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>351</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>215</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>96</v>
+        <v>401</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>99</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>23</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
@@ -7278,15 +7536,15 @@
         <v>96</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>125</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>351</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>403</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
@@ -7294,7 +7552,7 @@
         <v>96</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>99</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62">
@@ -7302,23 +7560,23 @@
         <v>401</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>406</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>125</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65">
@@ -7331,18 +7589,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>105</v>
+        <v>475</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>349</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68">
@@ -7350,7 +7608,7 @@
         <v>401</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69">
@@ -7416,7 +7674,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658B56D8-4EAF-4425-B05E-A768AB8F9268}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -7437,24 +7695,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>21</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -7465,7 +7723,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -7476,7 +7734,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -7487,7 +7745,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -7509,59 +7767,118 @@
         <v>19</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>284</v>
+        <v>612</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>285</v>
+        <v>613</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>286</v>
+        <v>614</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>287</v>
+        <v>615</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>288</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>106</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>289</v>
+        <v>616</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>90</v>
+        <v>617</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>290</v>
+        <v>618</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>291</v>
+        <v>593</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
